--- a/biology/Botanique/William's_Pride/William's_Pride.xlsx
+++ b/biology/Botanique/William's_Pride/William's_Pride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>William%27s_Pride</t>
+          <t>William's_Pride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William's Pride est le nom courant d'un cultivar de pommier domestique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>William%27s_Pride</t>
+          <t>William's_Pride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cultivar, issu de la recherche universitaire, a été obtenu aux États-Unis.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>William%27s_Pride</t>
+          <t>William's_Pride</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Coop23
 William's Pride Apple (littéralement: la pomme de William Pride)
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>William%27s_Pride</t>
+          <t>William's_Pride</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Couleur de la peau du fruit: rouge[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Couleur de la peau du fruit: rouge
 Couleur des fleurs : blanches</t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>William%27s_Pride</t>
+          <t>William's_Pride</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Croisements multiples effectués par des universités américaines (PRI: Purdue, Rutgers et d'Illinois) pour sélectionner des variétés résistantes à la tavelure du pommier[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Croisements multiples effectués par des universités américaines (PRI: Purdue, Rutgers et d'Illinois) pour sélectionner des variétés résistantes à la tavelure du pommier.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>William%27s_Pride</t>
+          <t>William's_Pride</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Résistances et susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>tavelure : résistant[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>tavelure : résistant.
 Mildiou : moyennement résistant</t>
         </is>
       </c>
